--- a/wikipedia_validation_sheets/Vascular dementia DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Vascular dementia DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4C96DCF6-64F9-F241-B317-64569DA0C24E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58490D-FD3C-7743-BD61-40FF18E3F6F3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="15440" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="38860" yWindow="460" windowWidth="27600" windowHeight="21140" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="229">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -492,21 +497,12 @@
     <t>gait and swallowing difficulties</t>
   </si>
   <si>
-    <t>DYSARTHRIAS</t>
-  </si>
-  <si>
-    <t>APHASIAS</t>
-  </si>
-  <si>
     <t>ABULIA</t>
   </si>
   <si>
     <t>PROBLEMS WITH ATTENTION, ORIENTATION</t>
   </si>
   <si>
-    <t>urinary incontinence</t>
-  </si>
-  <si>
     <t>slowing of processing abilit</t>
   </si>
   <si>
@@ -546,13 +542,181 @@
     <t>MICROINFARCTS</t>
   </si>
   <si>
-    <t>ATHEROMA</t>
-  </si>
-  <si>
     <t>FPREAL</t>
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>aphasias</t>
+  </si>
+  <si>
+    <t>Aphasia</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>perseverative, behaviour</t>
+  </si>
+  <si>
+    <t>Perseveration</t>
+  </si>
+  <si>
+    <t>memory, impairment</t>
+  </si>
+  <si>
+    <t>Memory impairment</t>
+  </si>
+  <si>
+    <t>cognitive, impairment, decline</t>
+  </si>
+  <si>
+    <t>Impaired cognition</t>
+  </si>
+  <si>
+    <t>calcification</t>
+  </si>
+  <si>
+    <t>Calcinosis</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>dementia, condition, dementias</t>
+  </si>
+  <si>
+    <t>Dementia</t>
+  </si>
+  <si>
+    <t>dysarthrias</t>
+  </si>
+  <si>
+    <t>Dysarthria</t>
+  </si>
+  <si>
+    <t>inflammation</t>
+  </si>
+  <si>
+    <t>Inflammation</t>
+  </si>
+  <si>
+    <t>atrophy</t>
+  </si>
+  <si>
+    <t>Atrophic</t>
+  </si>
+  <si>
+    <t>urinary, incontinence</t>
+  </si>
+  <si>
+    <t>Urinary incontinence</t>
+  </si>
+  <si>
+    <t>mental, disorders</t>
+  </si>
+  <si>
+    <t>Mental disorders NOS</t>
+  </si>
+  <si>
+    <t>mental</t>
+  </si>
+  <si>
+    <t>Psyche structure</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>mild, cognitive, impairment</t>
+  </si>
+  <si>
+    <t>Mild cognitive disorder</t>
+  </si>
+  <si>
+    <t>atheroma</t>
+  </si>
+  <si>
+    <t>Atheroma</t>
+  </si>
+  <si>
+    <t>icd</t>
+  </si>
+  <si>
+    <t>Impulse control disorder, NOS</t>
+  </si>
+  <si>
+    <t>attention</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>association</t>
+  </si>
+  <si>
+    <t>Association</t>
+  </si>
+  <si>
+    <t>sensitivity</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>cognitions</t>
+  </si>
+  <si>
+    <t>Cognition</t>
+  </si>
+  <si>
+    <t>cognitive, impairment</t>
+  </si>
+  <si>
+    <t>Cognitive disorder</t>
+  </si>
+  <si>
+    <t>haemorrhagic, infarct</t>
+  </si>
+  <si>
+    <t>Hemorrhagic infarct</t>
+  </si>
+  <si>
+    <t>infarcts</t>
+  </si>
+  <si>
+    <t>Infarction</t>
+  </si>
+  <si>
+    <t>dementia</t>
+  </si>
+  <si>
+    <t>Presenile dementia</t>
+  </si>
+  <si>
+    <t>abstract, thinking</t>
+  </si>
+  <si>
+    <t>Abstract thinking</t>
+  </si>
+  <si>
+    <t>mixed, dementia</t>
+  </si>
+  <si>
+    <t>Mixed dementia</t>
+  </si>
+  <si>
+    <t>amyloid, plaques</t>
+  </si>
+  <si>
+    <t>Senile plaque</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>The white matter is most affected, with noticeable atrophy (tissue loss)</t>
   </si>
 </sst>
 </file>
@@ -628,7 +792,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -852,51 +1016,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -929,24 +1048,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1006,9 +1112,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1019,26 +1122,17 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1407,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73:F92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="112" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1424,43 +1518,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="55" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -1504,10 +1598,10 @@
       <c r="E5" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="44" t="s">
+      <c r="F5" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -1543,7 +1637,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1572,7 +1666,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1659,7 +1753,7 @@
         <v>11</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1688,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1804,7 +1898,7 @@
         <v>11</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -2065,7 +2159,7 @@
         <v>11</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -2210,7 +2304,7 @@
         <v>11</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3373,464 +3467,1314 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>66</v>
       </c>
-      <c r="B70" s="38" t="s">
+      <c r="B70" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="21" t="s">
         <v>87</v>
       </c>
       <c r="E70" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="F70" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H70" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="40"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="42"/>
+      <c r="F70" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I70" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>67</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="24" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B72" s="36" t="s">
+      <c r="A72">
+        <v>68</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>69</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E73" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>70</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E74" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H74" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>71</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>72</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E76" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>73</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>74</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E78" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>75</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>76</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>77</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C81" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D81" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E81" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="24" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>78</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D82" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E82" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H82" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>79</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H83" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I83" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>80</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D84" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>81</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D85" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E85" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>82</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E86" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>83</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>84</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H88" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>85</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>86</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D90" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E90" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>87</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C91" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E91" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>88</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I92" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>89</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I93" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>90</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I94" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>91</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>92</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="E96" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I96" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="35"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="37"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B98" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="37" t="s">
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I98" s="34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B73" s="23" t="s">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B99" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="24" t="s">
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B74" s="23" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B100" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I74" s="24" t="s">
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B75" s="23" t="s">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B101" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="24" t="s">
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B76" s="23" t="s">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I76" s="24" t="s">
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B77" s="23" t="s">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="24" t="s">
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I103" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B78" s="23" t="s">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="24" t="s">
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I104" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B79" s="23" t="s">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B105" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="24" t="s">
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I105" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B80" s="23" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I80" s="24" t="s">
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B81" s="23" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B107" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I81" s="24" t="s">
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I107" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="23" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B108" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="24" t="s">
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="23" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32"/>
-      <c r="F83" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I83" s="24" t="s">
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I109" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="23" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I84" s="24" t="s">
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I110" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B85" s="23" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I85" s="24" t="s">
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I111" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B86" s="23" t="s">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I86" s="24" t="s">
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I112" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B87" s="23" t="s">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B113" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I87" s="24" t="s">
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B88" s="23" t="s">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B114" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I114" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B115" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="24" t="s">
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="24" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B89" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I89" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B90" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I90" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B91" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I91" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="I92" s="39" t="s">
-        <v>13</v>
-      </c>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="40"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="40"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B119" s="40"/>
+      <c r="C119" s="40"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="40"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="40"/>
+      <c r="C120" s="40"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="40"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B121" s="40"/>
+      <c r="C121" s="40"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="40"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="40"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="40"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="40"/>
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="40"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="40"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="40"/>
+      <c r="C127" s="40"/>
+      <c r="D127" s="40"/>
+      <c r="E127" s="40"/>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="40"/>
+      <c r="C128" s="40"/>
+      <c r="D128" s="40"/>
+      <c r="E128" s="40"/>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="40"/>
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" s="40"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="40"/>
+      <c r="E130" s="40"/>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="40"/>
+      <c r="C131" s="40"/>
+      <c r="D131" s="40"/>
+      <c r="E131" s="40"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="40"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="40"/>
+      <c r="E132" s="40"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" s="40"/>
+      <c r="C133" s="40"/>
+      <c r="D133" s="40"/>
+      <c r="E133" s="40"/>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="40"/>
+      <c r="E134" s="40"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="40"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="40"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="40"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="40"/>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="40"/>
+      <c r="C137" s="40"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="40"/>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" s="40"/>
+      <c r="C138" s="40"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="40"/>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="40"/>
+      <c r="C139" s="40"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="40"/>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="40"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="40"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
